--- a/utils/templates/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
+++ b/utils/templates/transform/output/dwcWorkbook_fixed_with_mark_2.xlsx
@@ -7,7 +7,8 @@
     <sheet name="event" sheetId="2" r:id="rId2"/>
     <sheet name="location" sheetId="3" r:id="rId3"/>
     <sheet name="occurrence" sheetId="4" r:id="rId4"/>
-    <sheet name="measurementOrFact" sheetId="5" r:id="rId5"/>
+    <sheet name="organism" sheetId="5" r:id="rId5"/>
+    <sheet name="measurementOrFact" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -36,14 +37,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="[$-1009]d/mmm/yy;@"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="[$-1009]d/mmm/yy;@"/>
+    <numFmt numFmtId="168" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="169" formatCode="0.000000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -407,37 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>eventId</v>
-      </c>
-      <c r="B1" t="str">
-        <v xml:space="preserve">basisOfRecord </v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
-      </c>
-      <c r="B2" t="str">
-        <v>HumanObservation</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,33 +419,283 @@
         <v>eventID</v>
       </c>
       <c r="B1" t="str">
-        <v>eventDate</v>
-      </c>
-      <c r="C1" t="str">
-        <v>eventRemarks</v>
+        <v xml:space="preserve">basisOfRecord </v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:0</v>
       </c>
       <c r="B2" t="str">
-        <v>28/Feb/23</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Some comments</v>
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Monashee Mountain Range:1:1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Monashee Mountain Range:1:2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Monashee Mountain Range:1:3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Monashee Mountain Range:1:4</v>
+      </c>
+      <c r="B6" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Monashee Mountain Range:1:5</v>
+      </c>
+      <c r="B7" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Monashee Mountain Range:1:6</v>
+      </c>
+      <c r="B8" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Monashee Mountain Range:1:7</v>
+      </c>
+      <c r="B9" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Monashee Mountain Range:1:8</v>
+      </c>
+      <c r="B10" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Monashee Mountain Range:1:9</v>
+      </c>
+      <c r="B11" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Monashee Mountain Range:1:10</v>
+      </c>
+      <c r="B12" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Monashee Mountain Range:1:11</v>
+      </c>
+      <c r="B13" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Monashee Mountain Range:1:12</v>
+      </c>
+      <c r="B14" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Monashee Mountain Range:1:13</v>
+      </c>
+      <c r="B15" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Monashee Mountain Range:1:14</v>
+      </c>
+      <c r="B16" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Monashee Mountain Range:1:15</v>
+      </c>
+      <c r="B17" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Monashee Mountain Range:2:16</v>
+      </c>
+      <c r="B18" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Monashee Mountain Range:2:17</v>
+      </c>
+      <c r="B19" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Monashee Mountain Range:2:18</v>
+      </c>
+      <c r="B20" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Monashee Mountain Range:2:19</v>
+      </c>
+      <c r="B21" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Monashee Mountain Range:2:20</v>
+      </c>
+      <c r="B22" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Monashee Mountain Range:2:21</v>
+      </c>
+      <c r="B23" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Monashee Mountain Range:2:22</v>
+      </c>
+      <c r="B24" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Monashee Mountain Range:2:23</v>
+      </c>
+      <c r="B25" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Monashee Mountain Range:3:24</v>
+      </c>
+      <c r="B26" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Monashee Mountain Range:3:25</v>
+      </c>
+      <c r="B27" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Monashee Mountain Range:3:26</v>
+      </c>
+      <c r="B28" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Monashee Mountain Range:3:27</v>
+      </c>
+      <c r="B29" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Monashee Mountain Range:3:28</v>
+      </c>
+      <c r="B30" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Monashee Mountain Range:3:29</v>
+      </c>
+      <c r="B31" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Monashee Mountain Range:3:30</v>
+      </c>
+      <c r="B32" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Monashee Mountain Range:3:31</v>
+      </c>
+      <c r="B33" t="str">
+        <v>HumanObservation</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Monashee Mountain Range:3:32</v>
+      </c>
+      <c r="B34" t="str">
+        <v>HumanObservation</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B34"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,45 +705,385 @@
         <v>eventID</v>
       </c>
       <c r="B1" t="str">
-        <v>verbatimCoordinates</v>
+        <v>eventDate</v>
       </c>
       <c r="C1" t="str">
-        <v>decimalLatitude</v>
-      </c>
-      <c r="D1" t="str">
-        <v>decimalLongitude</v>
-      </c>
-      <c r="E1" t="str">
-        <v>verbatimSRS</v>
+        <v>eventRemarks</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:0</v>
       </c>
       <c r="B2" t="str">
-        <v>10 11 22</v>
+        <v>19/Aug/19</v>
       </c>
       <c r="C2" t="str">
-        <v>91.00000</v>
-      </c>
-      <c r="D2" t="str">
-        <v>123.00000</v>
-      </c>
-      <c r="E2" t="str">
-        <v>WGS84</v>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Monashee Mountain Range:1:1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Monashee Mountain Range:1:2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Monashee Mountain Range:1:3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Monashee Mountain Range:1:4</v>
+      </c>
+      <c r="B6" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Monashee Mountain Range:1:5</v>
+      </c>
+      <c r="B7" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Monashee Mountain Range:1:6</v>
+      </c>
+      <c r="B8" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Monashee Mountain Range:1:7</v>
+      </c>
+      <c r="B9" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Monashee Mountain Range:1:8</v>
+      </c>
+      <c r="B10" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Monashee Mountain Range:1:9</v>
+      </c>
+      <c r="B11" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Monashee Mountain Range:1:10</v>
+      </c>
+      <c r="B12" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Monashee Mountain Range:1:11</v>
+      </c>
+      <c r="B13" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Monashee Mountain Range:1:12</v>
+      </c>
+      <c r="B14" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Monashee Mountain Range:1:13</v>
+      </c>
+      <c r="B15" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Monashee Mountain Range:1:14</v>
+      </c>
+      <c r="B16" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Monashee Mountain Range:1:15</v>
+      </c>
+      <c r="B17" t="str">
+        <v>19/Aug/19</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Monashee Mountain Range:2:16</v>
+      </c>
+      <c r="B18" t="str">
+        <v>20/Aug/19</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Monashee Mountain Range:2:17</v>
+      </c>
+      <c r="B19" t="str">
+        <v>20/Aug/19</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Monashee Mountain Range:2:18</v>
+      </c>
+      <c r="B20" t="str">
+        <v>20/Aug/19</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Monashee Mountain Range:2:19</v>
+      </c>
+      <c r="B21" t="str">
+        <v>20/Aug/19</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Monashee Mountain Range:2:20</v>
+      </c>
+      <c r="B22" t="str">
+        <v>20/Aug/19</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Monashee Mountain Range:2:21</v>
+      </c>
+      <c r="B23" t="str">
+        <v>20/Aug/19</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Monashee Mountain Range:2:22</v>
+      </c>
+      <c r="B24" t="str">
+        <v>20/Aug/19</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Monashee Mountain Range:2:23</v>
+      </c>
+      <c r="B25" t="str">
+        <v>20/Aug/19</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Monashee Mountain Range:3:24</v>
+      </c>
+      <c r="B26" t="str">
+        <v>21/Aug/19</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Monashee Mountain Range:3:25</v>
+      </c>
+      <c r="B27" t="str">
+        <v>21/Aug/19</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Monashee Mountain Range:3:26</v>
+      </c>
+      <c r="B28" t="str">
+        <v>21/Aug/19</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Monashee Mountain Range:3:27</v>
+      </c>
+      <c r="B29" t="str">
+        <v>21/Aug/19</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Monashee Mountain Range:3:28</v>
+      </c>
+      <c r="B30" t="str">
+        <v>21/Aug/19</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Monashee Mountain Range:3:29</v>
+      </c>
+      <c r="B31" t="str">
+        <v>21/Aug/19</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Monashee Mountain Range:3:30</v>
+      </c>
+      <c r="B32" t="str">
+        <v>21/Aug/19</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Monashee Mountain Range:3:31</v>
+      </c>
+      <c r="B33" t="str">
+        <v>21/Aug/19</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Monashee Mountain Range:3:32</v>
+      </c>
+      <c r="B34" t="str">
+        <v>21/Aug/19</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C34"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -531,540 +1093,589 @@
         <v>eventID</v>
       </c>
       <c r="B1" t="str">
-        <v>occurrenceID</v>
+        <v>verbatimCoordinates</v>
       </c>
       <c r="C1" t="str">
-        <v>individualCount</v>
+        <v>decimalLatitude</v>
       </c>
       <c r="D1" t="str">
-        <v>sex</v>
+        <v>decimalLongitude</v>
       </c>
       <c r="E1" t="str">
-        <v>lifeStage</v>
-      </c>
-      <c r="F1" t="str">
-        <v>taxonID</v>
-      </c>
-      <c r="G1" t="str">
-        <v>occurrenceRemarks</v>
+        <v>verbatimSRS</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:0</v>
       </c>
       <c r="B2" t="str">
-        <v>SA-1:BIDSUID-1:0:0</v>
+        <v>11 406314 5637739</v>
       </c>
       <c r="C2" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>yearling</v>
-      </c>
-      <c r="F2" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:1</v>
       </c>
       <c r="B3" t="str">
-        <v>SA-1:BIDSUID-1:0:1</v>
+        <v>11 409110 5637937</v>
       </c>
       <c r="C3" t="str">
-        <v>2</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F3" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:2</v>
       </c>
       <c r="B4" t="str">
-        <v>SA-1:BIDSUID-1:0:2</v>
+        <v>11 413433 5631710</v>
       </c>
       <c r="C4" t="str">
-        <v>3</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F4" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:3</v>
       </c>
       <c r="B5" t="str">
-        <v>SA-1:BIDSUID-1:0:3</v>
+        <v>11 413124 5632020</v>
       </c>
       <c r="C5" t="str">
-        <v>4</v>
+        <v/>
       </c>
       <c r="D5" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F5" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:4</v>
       </c>
       <c r="B6" t="str">
-        <v>SA-1:BIDSUID-1:0:4</v>
+        <v>11 408683 5633350</v>
       </c>
       <c r="C6" t="str">
-        <v>5</v>
+        <v/>
       </c>
       <c r="D6" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F6" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:5</v>
       </c>
       <c r="B7" t="str">
-        <v>SA-1:BIDSUID-1:0:5</v>
+        <v>11 408399 5634696</v>
       </c>
       <c r="C7" t="str">
-        <v>6</v>
+        <v/>
       </c>
       <c r="D7" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E7" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F7" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:6</v>
       </c>
       <c r="B8" t="str">
-        <v>SA-1:BIDSUID-1:0:6</v>
+        <v>11 405947 5634430</v>
       </c>
       <c r="C8" t="str">
-        <v>7</v>
+        <v/>
       </c>
       <c r="D8" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F8" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:7</v>
       </c>
       <c r="B9" t="str">
-        <v>SA-1:BIDSUID-1:0:7</v>
+        <v>11 404623 5629884</v>
       </c>
       <c r="C9" t="str">
-        <v>8</v>
+        <v/>
       </c>
       <c r="D9" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E9" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F9" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:8</v>
       </c>
       <c r="B10" t="str">
-        <v>SA-1:BIDSUID-1:0:8</v>
+        <v>11 407215 5622492</v>
       </c>
       <c r="C10" t="str">
-        <v>9</v>
+        <v/>
       </c>
       <c r="D10" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F10" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:9</v>
       </c>
       <c r="B11" t="str">
-        <v>SA-1:BIDSUID-1:0:9</v>
+        <v>11 411300 5624704</v>
       </c>
       <c r="C11" t="str">
-        <v>1010</v>
+        <v/>
       </c>
       <c r="D11" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E11" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F11" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G11" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:10</v>
       </c>
       <c r="B12" t="str">
-        <v>SA-1:BIDSUID-1:0:10</v>
+        <v>11 415986 5625063</v>
       </c>
       <c r="C12" t="str">
-        <v>11</v>
+        <v/>
       </c>
       <c r="D12" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F12" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G12" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:11</v>
       </c>
       <c r="B13" t="str">
-        <v>SA-1:BIDSUID-1:0:11</v>
+        <v>11 408329 5620690</v>
       </c>
       <c r="C13" t="str">
-        <v>12</v>
+        <v/>
       </c>
       <c r="D13" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F13" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G13" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:12</v>
       </c>
       <c r="B14" t="str">
-        <v>SA-1:BIDSUID-1:0:12</v>
+        <v>11 411887 5621873</v>
       </c>
       <c r="C14" t="str">
-        <v>13</v>
+        <v/>
       </c>
       <c r="D14" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F14" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G14" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:13</v>
       </c>
       <c r="B15" t="str">
-        <v>SA-1:BIDSUID-1:0:13</v>
+        <v>11 412610 5622919</v>
       </c>
       <c r="C15" t="str">
-        <v>14</v>
+        <v/>
       </c>
       <c r="D15" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F15" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G15" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:14</v>
       </c>
       <c r="B16" t="str">
-        <v>SA-1:BIDSUID-1:0:14</v>
+        <v>11 399656 5617067</v>
       </c>
       <c r="C16" t="str">
         <v/>
       </c>
       <c r="D16" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F16" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G16" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:15</v>
       </c>
       <c r="B17" t="str">
-        <v>SA-1:BIDSUID-1:0:15</v>
+        <v>11 399253 5620079</v>
       </c>
       <c r="C17" t="str">
-        <v>16</v>
+        <v/>
       </c>
       <c r="D17" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F17" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G17" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:2:16</v>
       </c>
       <c r="B18" t="str">
-        <v>SA-1:BIDSUID-1:0:16</v>
+        <v>11 413272 5618328</v>
       </c>
       <c r="C18" t="str">
-        <v>17</v>
+        <v/>
       </c>
       <c r="D18" t="str">
-        <v>male</v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F18" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G18" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:2:17</v>
       </c>
       <c r="B19" t="str">
-        <v>SA-1:BIDSUID-1:0:17</v>
+        <v>11 413198 5615693</v>
       </c>
       <c r="C19" t="str">
-        <v>18</v>
+        <v/>
       </c>
       <c r="D19" t="str">
-        <v>female</v>
+        <v/>
       </c>
       <c r="E19" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F19" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G19" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:2:18</v>
       </c>
       <c r="B20" t="str">
-        <v>SA-1:BIDSUID-1:0:18</v>
+        <v>11 412421 5614993</v>
       </c>
       <c r="C20" t="str">
-        <v>19</v>
+        <v/>
       </c>
       <c r="D20" t="str">
-        <v>unknown</v>
+        <v/>
       </c>
       <c r="E20" t="str">
-        <v>juvenile</v>
-      </c>
-      <c r="F20" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G20" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:2:19</v>
       </c>
       <c r="B21" t="str">
-        <v>SA-1:BIDSUID-1:0:19</v>
+        <v>11 418219 5612611</v>
       </c>
       <c r="C21" t="str">
-        <v>2020</v>
+        <v/>
       </c>
       <c r="D21" t="str">
-        <v>unknown</v>
+        <v/>
       </c>
       <c r="E21" t="str">
-        <v>adult</v>
-      </c>
-      <c r="F21" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G21" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:2:20</v>
       </c>
       <c r="B22" t="str">
-        <v>SA-1:BIDSUID-1:0:20</v>
+        <v>11 417624 5604340</v>
       </c>
       <c r="C22" t="str">
-        <v>21</v>
+        <v/>
       </c>
       <c r="D22" t="str">
-        <v>unknown</v>
+        <v/>
       </c>
       <c r="E22" t="str">
-        <v>yearling</v>
-      </c>
-      <c r="F22" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G22" t="str">
-        <v>Some comments</v>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:2:21</v>
       </c>
       <c r="B23" t="str">
-        <v>SA-1:BIDSUID-1:0:21</v>
+        <v>11 417532 5601885</v>
       </c>
       <c r="C23" t="str">
-        <v>22</v>
+        <v/>
       </c>
       <c r="D23" t="str">
-        <v>unknown</v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <v>unknown</v>
-      </c>
-      <c r="F23" t="str">
-        <v>C-EEL</v>
-      </c>
-      <c r="G23" t="str">
-        <v>Some comments</v>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Monashee Mountain Range:2:22</v>
+      </c>
+      <c r="B24" t="str">
+        <v>11 424813 5598833</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Monashee Mountain Range:2:23</v>
+      </c>
+      <c r="B25" t="str">
+        <v>11 424578 5598424</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Monashee Mountain Range:3:24</v>
+      </c>
+      <c r="B26" t="str">
+        <v>11 406488 5590516</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Monashee Mountain Range:3:25</v>
+      </c>
+      <c r="B27" t="str">
+        <v>11 403525 5586642</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Monashee Mountain Range:3:26</v>
+      </c>
+      <c r="B28" t="str">
+        <v>11 410388 5563989</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Monashee Mountain Range:3:27</v>
+      </c>
+      <c r="B29" t="str">
+        <v>11 410917 5560875</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Monashee Mountain Range:3:28</v>
+      </c>
+      <c r="B30" t="str">
+        <v>11 417451 5562866</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Monashee Mountain Range:3:29</v>
+      </c>
+      <c r="B31" t="str">
+        <v>11 412974 5564843</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Monashee Mountain Range:3:30</v>
+      </c>
+      <c r="B32" t="str">
+        <v>11 410869 5564042</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Monashee Mountain Range:3:31</v>
+      </c>
+      <c r="B33" t="str">
+        <v>11 414294 5566049</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Monashee Mountain Range:3:32</v>
+      </c>
+      <c r="B34" t="str">
+        <v>11 414543 5567252</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E34"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1074,364 +1685,4426 @@
         <v>eventID</v>
       </c>
       <c r="B1" t="str">
-        <v>measurementID</v>
+        <v>occurrenceID</v>
       </c>
       <c r="C1" t="str">
-        <v>occurrenceID</v>
+        <v>individualCount</v>
       </c>
       <c r="D1" t="str">
-        <v>measurementType</v>
+        <v>sex</v>
       </c>
       <c r="E1" t="str">
-        <v>measurementUnit</v>
+        <v>lifeStage</v>
       </c>
       <c r="F1" t="str">
-        <v>measurementValue</v>
+        <v>taxonID</v>
+      </c>
+      <c r="G1" t="str">
+        <v>occurrenceRemarks</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:0</v>
       </c>
       <c r="B2" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:0:0</v>
       </c>
       <c r="C2" t="str">
-        <v>SA-1:BIDSUID-1:0:0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F2" t="str">
-        <v>BC RISC Yearling Bulls</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:1</v>
       </c>
       <c r="B3" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:1:0</v>
       </c>
       <c r="C3" t="str">
-        <v>SA-1:BIDSUID-1:0:1</v>
+        <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F3" t="str">
-        <v>BC RISC Class I</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:2</v>
       </c>
       <c r="B4" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:2:0</v>
       </c>
       <c r="C4" t="str">
-        <v>SA-1:BIDSUID-1:0:2</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F4" t="str">
-        <v>BC RISC Class II</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:2</v>
       </c>
       <c r="B5" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:2:1</v>
       </c>
       <c r="C5" t="str">
-        <v>SA-1:BIDSUID-1:0:3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>juvenile</v>
       </c>
       <c r="F5" t="str">
-        <v>BC RISC Class III</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:3</v>
       </c>
       <c r="B6" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:3:0</v>
       </c>
       <c r="C6" t="str">
-        <v>SA-1:BIDSUID-1:0:4</v>
+        <v>4</v>
       </c>
       <c r="D6" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F6" t="str">
-        <v>BC RISC Class IV</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:3</v>
       </c>
       <c r="B7" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:3:1</v>
       </c>
       <c r="C7" t="str">
-        <v>SA-1:BIDSUID-1:0:5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>juvenile</v>
       </c>
       <c r="F7" t="str">
-        <v>Spike antlers</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:4</v>
       </c>
       <c r="B8" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:4:0</v>
       </c>
       <c r="C8" t="str">
-        <v>SA-1:BIDSUID-1:0:6</v>
+        <v>1</v>
       </c>
       <c r="D8" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F8" t="str">
-        <v>Raghorn antlers</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:5</v>
       </c>
       <c r="B9" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:5:0</v>
       </c>
       <c r="C9" t="str">
-        <v>SA-1:BIDSUID-1:0:7</v>
+        <v>2</v>
       </c>
       <c r="D9" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F9" t="str">
-        <v>3 points or fewer</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:5</v>
       </c>
       <c r="B10" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:5:1</v>
       </c>
       <c r="C10" t="str">
-        <v>SA-1:BIDSUID-1:0:8</v>
+        <v>1</v>
       </c>
       <c r="D10" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>juvenile</v>
       </c>
       <c r="F10" t="str">
-        <v>3 or 4 points</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:6</v>
       </c>
       <c r="B11" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:6:0</v>
       </c>
       <c r="C11" t="str">
-        <v>SA-1:BIDSUID-1:0:9</v>
+        <v>2</v>
       </c>
       <c r="D11" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F11" t="str">
-        <v>3 or 4 or 5 points</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:7</v>
       </c>
       <c r="B12" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:7:0</v>
       </c>
       <c r="C12" t="str">
-        <v>SA-1:BIDSUID-1:0:10</v>
+        <v>2</v>
       </c>
       <c r="D12" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F12" t="str">
-        <v>fewer than 4 points</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G12" t="str">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:8</v>
       </c>
       <c r="B13" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:8:0</v>
       </c>
       <c r="C13" t="str">
-        <v>SA-1:BIDSUID-1:0:11</v>
+        <v>1</v>
       </c>
       <c r="D13" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F13" t="str">
-        <v>4 points or more</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:9</v>
       </c>
       <c r="B14" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:9:0</v>
       </c>
       <c r="C14" t="str">
-        <v>SA-1:BIDSUID-1:0:12</v>
+        <v>8</v>
       </c>
       <c r="D14" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F14" t="str">
-        <v>5 points</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:9</v>
       </c>
       <c r="B15" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:9:1</v>
       </c>
       <c r="C15" t="str">
-        <v>SA-1:BIDSUID-1:0:13</v>
+        <v>3</v>
       </c>
       <c r="D15" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v>juvenile</v>
       </c>
       <c r="F15" t="str">
-        <v>5 points or more</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:10</v>
       </c>
       <c r="B16" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:10:0</v>
       </c>
       <c r="C16" t="str">
-        <v>SA-1:BIDSUID-1:0:14</v>
+        <v>3</v>
       </c>
       <c r="D16" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F16" t="str">
-        <v>6 points or more</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:10</v>
       </c>
       <c r="B17" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:10:1</v>
       </c>
       <c r="C17" t="str">
-        <v>SA-1:BIDSUID-1:0:15</v>
+        <v>1</v>
       </c>
       <c r="D17" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>juvenile</v>
       </c>
       <c r="F17" t="str">
-        <v>unknown</v>
+        <v>M-ORAM</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>SA-1:BIDSUID-1:0</v>
+        <v>Monashee Mountain Range:1:11</v>
       </c>
       <c r="B18" t="str">
-        <v>SA-1:BIDSUID-1:0:antler-configuration</v>
+        <v>Monashee Mountain Range:1:11:0</v>
       </c>
       <c r="C18" t="str">
-        <v>SA-1:BIDSUID-1:0:16</v>
+        <v>2</v>
       </c>
       <c r="D18" t="str">
-        <v>Antler Configuration</v>
+        <v>unknown</v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>adult</v>
       </c>
       <c r="F18" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Monashee Mountain Range:1:12</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Monashee Mountain Range:1:12:0</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2</v>
+      </c>
+      <c r="D19" t="str">
         <v>unknown</v>
+      </c>
+      <c r="E19" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F19" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Monashee Mountain Range:1:12</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Monashee Mountain Range:1:12:1</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2</v>
+      </c>
+      <c r="D20" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E20" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F20" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Monashee Mountain Range:1:13</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Monashee Mountain Range:1:13:0</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E21" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F21" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Monashee Mountain Range:1:13</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Monashee Mountain Range:1:13:1</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E22" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F22" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Monashee Mountain Range:1:14</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Monashee Mountain Range:1:14:0</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2</v>
+      </c>
+      <c r="D23" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E23" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F23" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Monashee Mountain Range:1:15</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Monashee Mountain Range:1:15:0</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1</v>
+      </c>
+      <c r="D24" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E24" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F24" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Monashee Mountain Range:1:15</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Monashee Mountain Range:1:15:1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>1</v>
+      </c>
+      <c r="D25" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E25" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F25" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Monashee Mountain Range:2:16</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Monashee Mountain Range:2:16:0</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2</v>
+      </c>
+      <c r="D26" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E26" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F26" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Monashee Mountain Range:2:17</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Monashee Mountain Range:2:17:0</v>
+      </c>
+      <c r="C27" t="str">
+        <v>3</v>
+      </c>
+      <c r="D27" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E27" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F27" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Monashee Mountain Range:2:18</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Monashee Mountain Range:2:18:0</v>
+      </c>
+      <c r="C28" t="str">
+        <v>3</v>
+      </c>
+      <c r="D28" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E28" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F28" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Monashee Mountain Range:2:18</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Monashee Mountain Range:2:18:1</v>
+      </c>
+      <c r="C29" t="str">
+        <v>1</v>
+      </c>
+      <c r="D29" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E29" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F29" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Monashee Mountain Range:2:19</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Monashee Mountain Range:2:19:0</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1</v>
+      </c>
+      <c r="D30" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E30" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F30" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Monashee Mountain Range:2:20</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Monashee Mountain Range:2:20:0</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2</v>
+      </c>
+      <c r="D31" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E31" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F31" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Monashee Mountain Range:2:21</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Monashee Mountain Range:2:21:0</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2</v>
+      </c>
+      <c r="D32" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E32" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F32" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Monashee Mountain Range:2:22</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Monashee Mountain Range:2:22:0</v>
+      </c>
+      <c r="C33" t="str">
+        <v>3</v>
+      </c>
+      <c r="D33" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E33" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F33" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Monashee Mountain Range:2:23</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Monashee Mountain Range:2:23:0</v>
+      </c>
+      <c r="C34" t="str">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E34" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F34" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Monashee Mountain Range:3:24</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Monashee Mountain Range:3:24:0</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2</v>
+      </c>
+      <c r="D35" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E35" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F35" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Monashee Mountain Range:3:25</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Monashee Mountain Range:3:25:0</v>
+      </c>
+      <c r="C36" t="str">
+        <v>1</v>
+      </c>
+      <c r="D36" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E36" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F36" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Monashee Mountain Range:3:26</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Monashee Mountain Range:3:26:0</v>
+      </c>
+      <c r="C37" t="str">
+        <v>2</v>
+      </c>
+      <c r="D37" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E37" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F37" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Monashee Mountain Range:3:27</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Monashee Mountain Range:3:27:0</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2</v>
+      </c>
+      <c r="D38" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E38" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F38" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Monashee Mountain Range:3:28</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Monashee Mountain Range:3:28:0</v>
+      </c>
+      <c r="C39" t="str">
+        <v>3</v>
+      </c>
+      <c r="D39" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E39" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F39" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Monashee Mountain Range:3:29</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Monashee Mountain Range:3:29:0</v>
+      </c>
+      <c r="C40" t="str">
+        <v>1</v>
+      </c>
+      <c r="D40" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E40" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F40" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Monashee Mountain Range:3:30</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Monashee Mountain Range:3:30:0</v>
+      </c>
+      <c r="C41" t="str">
+        <v>1</v>
+      </c>
+      <c r="D41" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E41" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F41" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Monashee Mountain Range:3:31</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Monashee Mountain Range:3:31:0</v>
+      </c>
+      <c r="C42" t="str">
+        <v>1</v>
+      </c>
+      <c r="D42" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E42" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F42" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Monashee Mountain Range:3:32</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Monashee Mountain Range:3:32:0</v>
+      </c>
+      <c r="C43" t="str">
+        <v>2</v>
+      </c>
+      <c r="D43" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E43" t="str">
+        <v>adult</v>
+      </c>
+      <c r="F43" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Monashee Mountain Range:3:32</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Monashee Mountain Range:3:32:1</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1</v>
+      </c>
+      <c r="D44" t="str">
+        <v>unknown</v>
+      </c>
+      <c r="E44" t="str">
+        <v>juvenile</v>
+      </c>
+      <c r="F44" t="str">
+        <v>M-ORAM</v>
+      </c>
+      <c r="G44" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G44"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E199"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>eventID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>measurementID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>measurementType</v>
+      </c>
+      <c r="D1" t="str">
+        <v>measurementUnit</v>
+      </c>
+      <c r="E1" t="str">
+        <v>measurementValue</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Monashee Mountain Range:1:0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Monashee Mountain Range:1:0:study-area</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Monashee Mountain Range:1:0</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Monashee Mountain Range:1:0:block-id/su-id</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Monashee Mountain Range:1:0</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Monashee Mountain Range:1:0:veg-cover</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D4" t="str">
+        <v>%</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Monashee Mountain Range:1:0</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Monashee Mountain Range:1:0:snow-cover</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D5" t="str">
+        <v>%</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Monashee Mountain Range:1:0</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Monashee Mountain Range:1:0:activity</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>Bedding</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Monashee Mountain Range:1:0</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Monashee Mountain Range:1:0:habitat</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v>Dissected Cliffs</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Monashee Mountain Range:1:1</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Monashee Mountain Range:1:1:study-area</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Monashee Mountain Range:1:1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Monashee Mountain Range:1:1:block-id/su-id</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Monashee Mountain Range:1:1</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Monashee Mountain Range:1:1:veg-cover</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D10" t="str">
+        <v>%</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Monashee Mountain Range:1:1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Monashee Mountain Range:1:1:snow-cover</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D11" t="str">
+        <v>%</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Monashee Mountain Range:1:1</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Monashee Mountain Range:1:1:activity</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v>Bedding</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Monashee Mountain Range:1:1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Monashee Mountain Range:1:1:habitat</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v>Flat or Open Slopes</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Monashee Mountain Range:1:2</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Monashee Mountain Range:1:2:study-area</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Monashee Mountain Range:1:2</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Monashee Mountain Range:1:2:block-id/su-id</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Monashee Mountain Range:1:2</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Monashee Mountain Range:1:2:veg-cover</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D16" t="str">
+        <v>%</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Monashee Mountain Range:1:2</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Monashee Mountain Range:1:2:snow-cover</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D17" t="str">
+        <v>%</v>
+      </c>
+      <c r="E17" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Monashee Mountain Range:1:2</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Monashee Mountain Range:1:2:activity</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Monashee Mountain Range:1:2</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Monashee Mountain Range:1:2:habitat</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v>Flat or Open Slopes</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Monashee Mountain Range:1:3</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Monashee Mountain Range:1:3:study-area</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Monashee Mountain Range:1:3</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Monashee Mountain Range:1:3:block-id/su-id</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Monashee Mountain Range:1:3</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Monashee Mountain Range:1:3:veg-cover</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D22" t="str">
+        <v>%</v>
+      </c>
+      <c r="E22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Monashee Mountain Range:1:3</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Monashee Mountain Range:1:3:snow-cover</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D23" t="str">
+        <v>%</v>
+      </c>
+      <c r="E23" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Monashee Mountain Range:1:3</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Monashee Mountain Range:1:3:activity</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Monashee Mountain Range:1:3</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Monashee Mountain Range:1:3:habitat</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v>Flat or Open Slopes</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Monashee Mountain Range:1:4</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Monashee Mountain Range:1:4:study-area</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Monashee Mountain Range:1:4</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Monashee Mountain Range:1:4:block-id/su-id</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Monashee Mountain Range:1:4</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Monashee Mountain Range:1:4:veg-cover</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D28" t="str">
+        <v>%</v>
+      </c>
+      <c r="E28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Monashee Mountain Range:1:4</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Monashee Mountain Range:1:4:snow-cover</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D29" t="str">
+        <v>%</v>
+      </c>
+      <c r="E29" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Monashee Mountain Range:1:4</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Monashee Mountain Range:1:4:activity</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v>Bedding</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Monashee Mountain Range:1:4</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Monashee Mountain Range:1:4:habitat</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v>Dissected Cliffs</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Monashee Mountain Range:1:5</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Monashee Mountain Range:1:5:study-area</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Monashee Mountain Range:1:5</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Monashee Mountain Range:1:5:block-id/su-id</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Monashee Mountain Range:1:5</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Monashee Mountain Range:1:5:veg-cover</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D34" t="str">
+        <v>%</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Monashee Mountain Range:1:5</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Monashee Mountain Range:1:5:snow-cover</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D35" t="str">
+        <v>%</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Monashee Mountain Range:1:5</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Monashee Mountain Range:1:5:activity</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v>Bedding</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Monashee Mountain Range:1:5</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Monashee Mountain Range:1:5:habitat</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v>Dissected Cliffs</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Monashee Mountain Range:1:6</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Monashee Mountain Range:1:6:study-area</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Monashee Mountain Range:1:6</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Monashee Mountain Range:1:6:block-id/su-id</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Monashee Mountain Range:1:6</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Monashee Mountain Range:1:6:veg-cover</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D40" t="str">
+        <v>%</v>
+      </c>
+      <c r="E40" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Monashee Mountain Range:1:6</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Monashee Mountain Range:1:6:snow-cover</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D41" t="str">
+        <v>%</v>
+      </c>
+      <c r="E41" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Monashee Mountain Range:1:6</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Monashee Mountain Range:1:6:activity</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Monashee Mountain Range:1:6</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Monashee Mountain Range:1:6:habitat</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Monashee Mountain Range:1:7</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Monashee Mountain Range:1:7:study-area</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Monashee Mountain Range:1:7</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Monashee Mountain Range:1:7:block-id/su-id</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Monashee Mountain Range:1:7</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Monashee Mountain Range:1:7:veg-cover</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D46" t="str">
+        <v>%</v>
+      </c>
+      <c r="E46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Monashee Mountain Range:1:7</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Monashee Mountain Range:1:7:snow-cover</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D47" t="str">
+        <v>%</v>
+      </c>
+      <c r="E47" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Monashee Mountain Range:1:7</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Monashee Mountain Range:1:7:activity</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Monashee Mountain Range:1:7</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Monashee Mountain Range:1:7:habitat</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Monashee Mountain Range:1:8</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Monashee Mountain Range:1:8:study-area</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Monashee Mountain Range:1:8</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Monashee Mountain Range:1:8:block-id/su-id</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Monashee Mountain Range:1:8</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Monashee Mountain Range:1:8:veg-cover</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D52" t="str">
+        <v>%</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Monashee Mountain Range:1:8</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Monashee Mountain Range:1:8:snow-cover</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D53" t="str">
+        <v>%</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Monashee Mountain Range:1:8</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Monashee Mountain Range:1:8:activity</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Monashee Mountain Range:1:8</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Monashee Mountain Range:1:8:habitat</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <v>Dissected Cliffs</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Monashee Mountain Range:1:9</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Monashee Mountain Range:1:9:study-area</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Monashee Mountain Range:1:9</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Monashee Mountain Range:1:9:block-id/su-id</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Monashee Mountain Range:1:9</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Monashee Mountain Range:1:9:veg-cover</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D58" t="str">
+        <v>%</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Monashee Mountain Range:1:9</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Monashee Mountain Range:1:9:snow-cover</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D59" t="str">
+        <v>%</v>
+      </c>
+      <c r="E59" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Monashee Mountain Range:1:9</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Monashee Mountain Range:1:9:activity</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Monashee Mountain Range:1:9</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Monashee Mountain Range:1:9:habitat</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Monashee Mountain Range:1:10</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Monashee Mountain Range:1:10:study-area</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+      <c r="E62" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Monashee Mountain Range:1:10</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Monashee Mountain Range:1:10:block-id/su-id</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D63" t="str">
+        <v/>
+      </c>
+      <c r="E63" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Monashee Mountain Range:1:10</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Monashee Mountain Range:1:10:veg-cover</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D64" t="str">
+        <v>%</v>
+      </c>
+      <c r="E64" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Monashee Mountain Range:1:10</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Monashee Mountain Range:1:10:snow-cover</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D65" t="str">
+        <v>%</v>
+      </c>
+      <c r="E65" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Monashee Mountain Range:1:10</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Monashee Mountain Range:1:10:activity</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D66" t="str">
+        <v/>
+      </c>
+      <c r="E66" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Monashee Mountain Range:1:10</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Monashee Mountain Range:1:10:habitat</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D67" t="str">
+        <v/>
+      </c>
+      <c r="E67" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Monashee Mountain Range:1:11</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Monashee Mountain Range:1:11:study-area</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D68" t="str">
+        <v/>
+      </c>
+      <c r="E68" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Monashee Mountain Range:1:11</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Monashee Mountain Range:1:11:block-id/su-id</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D69" t="str">
+        <v/>
+      </c>
+      <c r="E69" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Monashee Mountain Range:1:11</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Monashee Mountain Range:1:11:veg-cover</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D70" t="str">
+        <v>%</v>
+      </c>
+      <c r="E70" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Monashee Mountain Range:1:11</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Monashee Mountain Range:1:11:snow-cover</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D71" t="str">
+        <v>%</v>
+      </c>
+      <c r="E71" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Monashee Mountain Range:1:11</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Monashee Mountain Range:1:11:activity</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D72" t="str">
+        <v/>
+      </c>
+      <c r="E72" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Monashee Mountain Range:1:11</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Monashee Mountain Range:1:11:habitat</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D73" t="str">
+        <v/>
+      </c>
+      <c r="E73" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Monashee Mountain Range:1:12</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Monashee Mountain Range:1:12:study-area</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D74" t="str">
+        <v/>
+      </c>
+      <c r="E74" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Monashee Mountain Range:1:12</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Monashee Mountain Range:1:12:block-id/su-id</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D75" t="str">
+        <v/>
+      </c>
+      <c r="E75" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Monashee Mountain Range:1:12</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Monashee Mountain Range:1:12:veg-cover</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D76" t="str">
+        <v>%</v>
+      </c>
+      <c r="E76" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Monashee Mountain Range:1:12</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Monashee Mountain Range:1:12:snow-cover</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D77" t="str">
+        <v>%</v>
+      </c>
+      <c r="E77" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Monashee Mountain Range:1:12</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Monashee Mountain Range:1:12:activity</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D78" t="str">
+        <v/>
+      </c>
+      <c r="E78" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Monashee Mountain Range:1:12</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Monashee Mountain Range:1:12:habitat</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D79" t="str">
+        <v/>
+      </c>
+      <c r="E79" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Monashee Mountain Range:1:13</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Monashee Mountain Range:1:13:study-area</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D80" t="str">
+        <v/>
+      </c>
+      <c r="E80" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Monashee Mountain Range:1:13</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Monashee Mountain Range:1:13:block-id/su-id</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D81" t="str">
+        <v/>
+      </c>
+      <c r="E81" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Monashee Mountain Range:1:13</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Monashee Mountain Range:1:13:veg-cover</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D82" t="str">
+        <v>%</v>
+      </c>
+      <c r="E82" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Monashee Mountain Range:1:13</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Monashee Mountain Range:1:13:snow-cover</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D83" t="str">
+        <v>%</v>
+      </c>
+      <c r="E83" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Monashee Mountain Range:1:13</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Monashee Mountain Range:1:13:activity</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D84" t="str">
+        <v/>
+      </c>
+      <c r="E84" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Monashee Mountain Range:1:13</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Monashee Mountain Range:1:13:habitat</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D85" t="str">
+        <v/>
+      </c>
+      <c r="E85" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Monashee Mountain Range:1:14</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Monashee Mountain Range:1:14:study-area</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D86" t="str">
+        <v/>
+      </c>
+      <c r="E86" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Monashee Mountain Range:1:14</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Monashee Mountain Range:1:14:block-id/su-id</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D87" t="str">
+        <v/>
+      </c>
+      <c r="E87" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Monashee Mountain Range:1:14</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Monashee Mountain Range:1:14:veg-cover</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D88" t="str">
+        <v>%</v>
+      </c>
+      <c r="E88" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Monashee Mountain Range:1:14</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Monashee Mountain Range:1:14:snow-cover</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D89" t="str">
+        <v>%</v>
+      </c>
+      <c r="E89" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Monashee Mountain Range:1:14</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Monashee Mountain Range:1:14:activity</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D90" t="str">
+        <v/>
+      </c>
+      <c r="E90" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Monashee Mountain Range:1:14</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Monashee Mountain Range:1:14:habitat</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D91" t="str">
+        <v/>
+      </c>
+      <c r="E91" t="str">
+        <v>Flat or Open Slopes</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Monashee Mountain Range:1:15</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Monashee Mountain Range:1:15:study-area</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D92" t="str">
+        <v/>
+      </c>
+      <c r="E92" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Monashee Mountain Range:1:15</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Monashee Mountain Range:1:15:block-id/su-id</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D93" t="str">
+        <v/>
+      </c>
+      <c r="E93" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Monashee Mountain Range:1:15</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Monashee Mountain Range:1:15:veg-cover</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D94" t="str">
+        <v>%</v>
+      </c>
+      <c r="E94" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Monashee Mountain Range:1:15</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Monashee Mountain Range:1:15:snow-cover</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D95" t="str">
+        <v>%</v>
+      </c>
+      <c r="E95" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Monashee Mountain Range:1:15</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Monashee Mountain Range:1:15:activity</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D96" t="str">
+        <v/>
+      </c>
+      <c r="E96" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Monashee Mountain Range:1:15</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Monashee Mountain Range:1:15:habitat</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D97" t="str">
+        <v/>
+      </c>
+      <c r="E97" t="str">
+        <v>Terraces</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Monashee Mountain Range:2:16</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Monashee Mountain Range:2:16:study-area</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D98" t="str">
+        <v/>
+      </c>
+      <c r="E98" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Monashee Mountain Range:2:16</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Monashee Mountain Range:2:16:block-id/su-id</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D99" t="str">
+        <v/>
+      </c>
+      <c r="E99" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Monashee Mountain Range:2:16</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Monashee Mountain Range:2:16:veg-cover</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D100" t="str">
+        <v>%</v>
+      </c>
+      <c r="E100" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Monashee Mountain Range:2:16</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Monashee Mountain Range:2:16:snow-cover</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D101" t="str">
+        <v>%</v>
+      </c>
+      <c r="E101" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Monashee Mountain Range:2:16</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Monashee Mountain Range:2:16:activity</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D102" t="str">
+        <v/>
+      </c>
+      <c r="E102" t="str">
+        <v>Moving</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Monashee Mountain Range:2:16</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Monashee Mountain Range:2:16:habitat</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D103" t="str">
+        <v/>
+      </c>
+      <c r="E103" t="str">
+        <v>Rock/Talus</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Monashee Mountain Range:2:17</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Monashee Mountain Range:2:17:study-area</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D104" t="str">
+        <v/>
+      </c>
+      <c r="E104" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Monashee Mountain Range:2:17</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Monashee Mountain Range:2:17:block-id/su-id</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D105" t="str">
+        <v/>
+      </c>
+      <c r="E105" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Monashee Mountain Range:2:17</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Monashee Mountain Range:2:17:veg-cover</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D106" t="str">
+        <v>%</v>
+      </c>
+      <c r="E106" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Monashee Mountain Range:2:17</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Monashee Mountain Range:2:17:snow-cover</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D107" t="str">
+        <v>%</v>
+      </c>
+      <c r="E107" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Monashee Mountain Range:2:17</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Monashee Mountain Range:2:17:activity</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D108" t="str">
+        <v/>
+      </c>
+      <c r="E108" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Monashee Mountain Range:2:17</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Monashee Mountain Range:2:17:habitat</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D109" t="str">
+        <v/>
+      </c>
+      <c r="E109" t="str">
+        <v>Terraces</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Monashee Mountain Range:2:18</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Monashee Mountain Range:2:18:study-area</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D110" t="str">
+        <v/>
+      </c>
+      <c r="E110" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Monashee Mountain Range:2:18</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Monashee Mountain Range:2:18:block-id/su-id</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D111" t="str">
+        <v/>
+      </c>
+      <c r="E111" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Monashee Mountain Range:2:18</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Monashee Mountain Range:2:18:veg-cover</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D112" t="str">
+        <v>%</v>
+      </c>
+      <c r="E112" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Monashee Mountain Range:2:18</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Monashee Mountain Range:2:18:snow-cover</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D113" t="str">
+        <v>%</v>
+      </c>
+      <c r="E113" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Monashee Mountain Range:2:18</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Monashee Mountain Range:2:18:activity</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D114" t="str">
+        <v/>
+      </c>
+      <c r="E114" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Monashee Mountain Range:2:18</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Monashee Mountain Range:2:18:habitat</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D115" t="str">
+        <v/>
+      </c>
+      <c r="E115" t="str">
+        <v>Dissected Cliffs</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Monashee Mountain Range:2:19</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Monashee Mountain Range:2:19:study-area</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D116" t="str">
+        <v/>
+      </c>
+      <c r="E116" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Monashee Mountain Range:2:19</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Monashee Mountain Range:2:19:block-id/su-id</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D117" t="str">
+        <v/>
+      </c>
+      <c r="E117" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Monashee Mountain Range:2:19</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Monashee Mountain Range:2:19:veg-cover</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D118" t="str">
+        <v>%</v>
+      </c>
+      <c r="E118" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Monashee Mountain Range:2:19</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Monashee Mountain Range:2:19:snow-cover</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D119" t="str">
+        <v>%</v>
+      </c>
+      <c r="E119" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Monashee Mountain Range:2:19</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Monashee Mountain Range:2:19:activity</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D120" t="str">
+        <v/>
+      </c>
+      <c r="E120" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Monashee Mountain Range:2:19</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Monashee Mountain Range:2:19:habitat</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D121" t="str">
+        <v/>
+      </c>
+      <c r="E121" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Monashee Mountain Range:2:20</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Monashee Mountain Range:2:20:study-area</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D122" t="str">
+        <v/>
+      </c>
+      <c r="E122" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Monashee Mountain Range:2:20</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Monashee Mountain Range:2:20:block-id/su-id</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D123" t="str">
+        <v/>
+      </c>
+      <c r="E123" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Monashee Mountain Range:2:20</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Monashee Mountain Range:2:20:veg-cover</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D124" t="str">
+        <v>%</v>
+      </c>
+      <c r="E124" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Monashee Mountain Range:2:20</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Monashee Mountain Range:2:20:snow-cover</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D125" t="str">
+        <v>%</v>
+      </c>
+      <c r="E125" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Monashee Mountain Range:2:20</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Monashee Mountain Range:2:20:activity</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D126" t="str">
+        <v/>
+      </c>
+      <c r="E126" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Monashee Mountain Range:2:20</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Monashee Mountain Range:2:20:habitat</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D127" t="str">
+        <v/>
+      </c>
+      <c r="E127" t="str">
+        <v>Terraces</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Monashee Mountain Range:2:21</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Monashee Mountain Range:2:21:study-area</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D128" t="str">
+        <v/>
+      </c>
+      <c r="E128" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Monashee Mountain Range:2:21</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Monashee Mountain Range:2:21:block-id/su-id</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D129" t="str">
+        <v/>
+      </c>
+      <c r="E129" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Monashee Mountain Range:2:21</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Monashee Mountain Range:2:21:veg-cover</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D130" t="str">
+        <v>%</v>
+      </c>
+      <c r="E130" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Monashee Mountain Range:2:21</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Monashee Mountain Range:2:21:snow-cover</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D131" t="str">
+        <v>%</v>
+      </c>
+      <c r="E131" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Monashee Mountain Range:2:21</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Monashee Mountain Range:2:21:activity</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D132" t="str">
+        <v/>
+      </c>
+      <c r="E132" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Monashee Mountain Range:2:21</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Monashee Mountain Range:2:21:habitat</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D133" t="str">
+        <v/>
+      </c>
+      <c r="E133" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Monashee Mountain Range:2:22</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Monashee Mountain Range:2:22:study-area</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D134" t="str">
+        <v/>
+      </c>
+      <c r="E134" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Monashee Mountain Range:2:22</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Monashee Mountain Range:2:22:block-id/su-id</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D135" t="str">
+        <v/>
+      </c>
+      <c r="E135" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Monashee Mountain Range:2:22</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Monashee Mountain Range:2:22:veg-cover</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D136" t="str">
+        <v>%</v>
+      </c>
+      <c r="E136" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Monashee Mountain Range:2:22</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Monashee Mountain Range:2:22:snow-cover</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D137" t="str">
+        <v>%</v>
+      </c>
+      <c r="E137" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Monashee Mountain Range:2:22</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Monashee Mountain Range:2:22:activity</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D138" t="str">
+        <v/>
+      </c>
+      <c r="E138" t="str">
+        <v>Moving</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Monashee Mountain Range:2:22</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Monashee Mountain Range:2:22:habitat</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D139" t="str">
+        <v/>
+      </c>
+      <c r="E139" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Monashee Mountain Range:2:23</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Monashee Mountain Range:2:23:study-area</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D140" t="str">
+        <v/>
+      </c>
+      <c r="E140" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Monashee Mountain Range:2:23</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Monashee Mountain Range:2:23:block-id/su-id</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D141" t="str">
+        <v/>
+      </c>
+      <c r="E141" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Monashee Mountain Range:2:23</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Monashee Mountain Range:2:23:veg-cover</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D142" t="str">
+        <v>%</v>
+      </c>
+      <c r="E142" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Monashee Mountain Range:2:23</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Monashee Mountain Range:2:23:snow-cover</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D143" t="str">
+        <v>%</v>
+      </c>
+      <c r="E143" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Monashee Mountain Range:2:23</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Monashee Mountain Range:2:23:activity</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D144" t="str">
+        <v/>
+      </c>
+      <c r="E144" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Monashee Mountain Range:2:23</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Monashee Mountain Range:2:23:habitat</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D145" t="str">
+        <v/>
+      </c>
+      <c r="E145" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Monashee Mountain Range:3:24</v>
+      </c>
+      <c r="B146" t="str">
+        <v>Monashee Mountain Range:3:24:study-area</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D146" t="str">
+        <v/>
+      </c>
+      <c r="E146" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Monashee Mountain Range:3:24</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Monashee Mountain Range:3:24:block-id/su-id</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D147" t="str">
+        <v/>
+      </c>
+      <c r="E147" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Monashee Mountain Range:3:24</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Monashee Mountain Range:3:24:veg-cover</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D148" t="str">
+        <v>%</v>
+      </c>
+      <c r="E148" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Monashee Mountain Range:3:24</v>
+      </c>
+      <c r="B149" t="str">
+        <v>Monashee Mountain Range:3:24:snow-cover</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D149" t="str">
+        <v>%</v>
+      </c>
+      <c r="E149" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Monashee Mountain Range:3:24</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Monashee Mountain Range:3:24:activity</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D150" t="str">
+        <v/>
+      </c>
+      <c r="E150" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Monashee Mountain Range:3:24</v>
+      </c>
+      <c r="B151" t="str">
+        <v>Monashee Mountain Range:3:24:habitat</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D151" t="str">
+        <v/>
+      </c>
+      <c r="E151" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Monashee Mountain Range:3:25</v>
+      </c>
+      <c r="B152" t="str">
+        <v>Monashee Mountain Range:3:25:study-area</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D152" t="str">
+        <v/>
+      </c>
+      <c r="E152" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Monashee Mountain Range:3:25</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Monashee Mountain Range:3:25:block-id/su-id</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D153" t="str">
+        <v/>
+      </c>
+      <c r="E153" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Monashee Mountain Range:3:25</v>
+      </c>
+      <c r="B154" t="str">
+        <v>Monashee Mountain Range:3:25:veg-cover</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D154" t="str">
+        <v>%</v>
+      </c>
+      <c r="E154" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Monashee Mountain Range:3:25</v>
+      </c>
+      <c r="B155" t="str">
+        <v>Monashee Mountain Range:3:25:snow-cover</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D155" t="str">
+        <v>%</v>
+      </c>
+      <c r="E155" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Monashee Mountain Range:3:25</v>
+      </c>
+      <c r="B156" t="str">
+        <v>Monashee Mountain Range:3:25:activity</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D156" t="str">
+        <v/>
+      </c>
+      <c r="E156" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Monashee Mountain Range:3:25</v>
+      </c>
+      <c r="B157" t="str">
+        <v>Monashee Mountain Range:3:25:habitat</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D157" t="str">
+        <v/>
+      </c>
+      <c r="E157" t="str">
+        <v>Dissected Cliffs</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Monashee Mountain Range:3:26</v>
+      </c>
+      <c r="B158" t="str">
+        <v>Monashee Mountain Range:3:26:study-area</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D158" t="str">
+        <v/>
+      </c>
+      <c r="E158" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Monashee Mountain Range:3:26</v>
+      </c>
+      <c r="B159" t="str">
+        <v>Monashee Mountain Range:3:26:block-id/su-id</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D159" t="str">
+        <v/>
+      </c>
+      <c r="E159" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Monashee Mountain Range:3:26</v>
+      </c>
+      <c r="B160" t="str">
+        <v>Monashee Mountain Range:3:26:veg-cover</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D160" t="str">
+        <v>%</v>
+      </c>
+      <c r="E160" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Monashee Mountain Range:3:26</v>
+      </c>
+      <c r="B161" t="str">
+        <v>Monashee Mountain Range:3:26:snow-cover</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D161" t="str">
+        <v>%</v>
+      </c>
+      <c r="E161" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Monashee Mountain Range:3:26</v>
+      </c>
+      <c r="B162" t="str">
+        <v>Monashee Mountain Range:3:26:activity</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D162" t="str">
+        <v/>
+      </c>
+      <c r="E162" t="str">
+        <v>Moving</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Monashee Mountain Range:3:26</v>
+      </c>
+      <c r="B163" t="str">
+        <v>Monashee Mountain Range:3:26:habitat</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D163" t="str">
+        <v/>
+      </c>
+      <c r="E163" t="str">
+        <v>Terraces</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Monashee Mountain Range:3:27</v>
+      </c>
+      <c r="B164" t="str">
+        <v>Monashee Mountain Range:3:27:study-area</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D164" t="str">
+        <v/>
+      </c>
+      <c r="E164" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Monashee Mountain Range:3:27</v>
+      </c>
+      <c r="B165" t="str">
+        <v>Monashee Mountain Range:3:27:block-id/su-id</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D165" t="str">
+        <v/>
+      </c>
+      <c r="E165" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Monashee Mountain Range:3:27</v>
+      </c>
+      <c r="B166" t="str">
+        <v>Monashee Mountain Range:3:27:veg-cover</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D166" t="str">
+        <v>%</v>
+      </c>
+      <c r="E166" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Monashee Mountain Range:3:27</v>
+      </c>
+      <c r="B167" t="str">
+        <v>Monashee Mountain Range:3:27:snow-cover</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D167" t="str">
+        <v>%</v>
+      </c>
+      <c r="E167" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Monashee Mountain Range:3:27</v>
+      </c>
+      <c r="B168" t="str">
+        <v>Monashee Mountain Range:3:27:activity</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D168" t="str">
+        <v/>
+      </c>
+      <c r="E168" t="str">
+        <v>Moving</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Monashee Mountain Range:3:27</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Monashee Mountain Range:3:27:habitat</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D169" t="str">
+        <v/>
+      </c>
+      <c r="E169" t="str">
+        <v>Rock/Talus</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Monashee Mountain Range:3:28</v>
+      </c>
+      <c r="B170" t="str">
+        <v>Monashee Mountain Range:3:28:study-area</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D170" t="str">
+        <v/>
+      </c>
+      <c r="E170" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Monashee Mountain Range:3:28</v>
+      </c>
+      <c r="B171" t="str">
+        <v>Monashee Mountain Range:3:28:block-id/su-id</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D171" t="str">
+        <v/>
+      </c>
+      <c r="E171" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Monashee Mountain Range:3:28</v>
+      </c>
+      <c r="B172" t="str">
+        <v>Monashee Mountain Range:3:28:veg-cover</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D172" t="str">
+        <v>%</v>
+      </c>
+      <c r="E172" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Monashee Mountain Range:3:28</v>
+      </c>
+      <c r="B173" t="str">
+        <v>Monashee Mountain Range:3:28:snow-cover</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D173" t="str">
+        <v>%</v>
+      </c>
+      <c r="E173" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Monashee Mountain Range:3:28</v>
+      </c>
+      <c r="B174" t="str">
+        <v>Monashee Mountain Range:3:28:activity</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D174" t="str">
+        <v/>
+      </c>
+      <c r="E174" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Monashee Mountain Range:3:28</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Monashee Mountain Range:3:28:habitat</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D175" t="str">
+        <v/>
+      </c>
+      <c r="E175" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Monashee Mountain Range:3:29</v>
+      </c>
+      <c r="B176" t="str">
+        <v>Monashee Mountain Range:3:29:study-area</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D176" t="str">
+        <v/>
+      </c>
+      <c r="E176" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Monashee Mountain Range:3:29</v>
+      </c>
+      <c r="B177" t="str">
+        <v>Monashee Mountain Range:3:29:block-id/su-id</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D177" t="str">
+        <v/>
+      </c>
+      <c r="E177" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Monashee Mountain Range:3:29</v>
+      </c>
+      <c r="B178" t="str">
+        <v>Monashee Mountain Range:3:29:veg-cover</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D178" t="str">
+        <v>%</v>
+      </c>
+      <c r="E178" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Monashee Mountain Range:3:29</v>
+      </c>
+      <c r="B179" t="str">
+        <v>Monashee Mountain Range:3:29:snow-cover</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D179" t="str">
+        <v>%</v>
+      </c>
+      <c r="E179" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Monashee Mountain Range:3:29</v>
+      </c>
+      <c r="B180" t="str">
+        <v>Monashee Mountain Range:3:29:activity</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D180" t="str">
+        <v/>
+      </c>
+      <c r="E180" t="str">
+        <v>Moving</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Monashee Mountain Range:3:29</v>
+      </c>
+      <c r="B181" t="str">
+        <v>Monashee Mountain Range:3:29:habitat</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D181" t="str">
+        <v/>
+      </c>
+      <c r="E181" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Monashee Mountain Range:3:30</v>
+      </c>
+      <c r="B182" t="str">
+        <v>Monashee Mountain Range:3:30:study-area</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D182" t="str">
+        <v/>
+      </c>
+      <c r="E182" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Monashee Mountain Range:3:30</v>
+      </c>
+      <c r="B183" t="str">
+        <v>Monashee Mountain Range:3:30:block-id/su-id</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D183" t="str">
+        <v/>
+      </c>
+      <c r="E183" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Monashee Mountain Range:3:30</v>
+      </c>
+      <c r="B184" t="str">
+        <v>Monashee Mountain Range:3:30:veg-cover</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D184" t="str">
+        <v>%</v>
+      </c>
+      <c r="E184" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Monashee Mountain Range:3:30</v>
+      </c>
+      <c r="B185" t="str">
+        <v>Monashee Mountain Range:3:30:snow-cover</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D185" t="str">
+        <v>%</v>
+      </c>
+      <c r="E185" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Monashee Mountain Range:3:30</v>
+      </c>
+      <c r="B186" t="str">
+        <v>Monashee Mountain Range:3:30:activity</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D186" t="str">
+        <v/>
+      </c>
+      <c r="E186" t="str">
+        <v>Standing</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Monashee Mountain Range:3:30</v>
+      </c>
+      <c r="B187" t="str">
+        <v>Monashee Mountain Range:3:30:habitat</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D187" t="str">
+        <v/>
+      </c>
+      <c r="E187" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Monashee Mountain Range:3:31</v>
+      </c>
+      <c r="B188" t="str">
+        <v>Monashee Mountain Range:3:31:study-area</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D188" t="str">
+        <v/>
+      </c>
+      <c r="E188" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Monashee Mountain Range:3:31</v>
+      </c>
+      <c r="B189" t="str">
+        <v>Monashee Mountain Range:3:31:block-id/su-id</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D189" t="str">
+        <v/>
+      </c>
+      <c r="E189" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Monashee Mountain Range:3:31</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Monashee Mountain Range:3:31:veg-cover</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D190" t="str">
+        <v>%</v>
+      </c>
+      <c r="E190" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Monashee Mountain Range:3:31</v>
+      </c>
+      <c r="B191" t="str">
+        <v>Monashee Mountain Range:3:31:snow-cover</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D191" t="str">
+        <v>%</v>
+      </c>
+      <c r="E191" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Monashee Mountain Range:3:31</v>
+      </c>
+      <c r="B192" t="str">
+        <v>Monashee Mountain Range:3:31:activity</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D192" t="str">
+        <v/>
+      </c>
+      <c r="E192" t="str">
+        <v>Moving</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Monashee Mountain Range:3:31</v>
+      </c>
+      <c r="B193" t="str">
+        <v>Monashee Mountain Range:3:31:habitat</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D193" t="str">
+        <v/>
+      </c>
+      <c r="E193" t="str">
+        <v>Terraces</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Monashee Mountain Range:3:32</v>
+      </c>
+      <c r="B194" t="str">
+        <v>Monashee Mountain Range:3:32:study-area</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Study Area</v>
+      </c>
+      <c r="D194" t="str">
+        <v/>
+      </c>
+      <c r="E194" t="str">
+        <v>Monashee Mountain Range</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Monashee Mountain Range:3:32</v>
+      </c>
+      <c r="B195" t="str">
+        <v>Monashee Mountain Range:3:32:block-id/su-id</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Block ID/SU ID</v>
+      </c>
+      <c r="D195" t="str">
+        <v/>
+      </c>
+      <c r="E195" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Monashee Mountain Range:3:32</v>
+      </c>
+      <c r="B196" t="str">
+        <v>Monashee Mountain Range:3:32:veg-cover</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Veg Cover</v>
+      </c>
+      <c r="D196" t="str">
+        <v>%</v>
+      </c>
+      <c r="E196" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Monashee Mountain Range:3:32</v>
+      </c>
+      <c r="B197" t="str">
+        <v>Monashee Mountain Range:3:32:snow-cover</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Snow Cover</v>
+      </c>
+      <c r="D197" t="str">
+        <v>%</v>
+      </c>
+      <c r="E197" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Monashee Mountain Range:3:32</v>
+      </c>
+      <c r="B198" t="str">
+        <v>Monashee Mountain Range:3:32:activity</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Activity</v>
+      </c>
+      <c r="D198" t="str">
+        <v/>
+      </c>
+      <c r="E198" t="str">
+        <v>Moving</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Monashee Mountain Range:3:32</v>
+      </c>
+      <c r="B199" t="str">
+        <v>Monashee Mountain Range:3:32:habitat</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Habitat</v>
+      </c>
+      <c r="D199" t="str">
+        <v/>
+      </c>
+      <c r="E199" t="str">
+        <v>Cliff</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E199"/>
   </ignoredErrors>
 </worksheet>
 </file>